--- a/91up/2013年国考行测真题卷_2013_119_135.xlsx
+++ b/91up/2013年国考行测真题卷_2013_119_135.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="697">
   <si>
     <t>题目</t>
   </si>
@@ -43,6 +43,9 @@
     <t>描述</t>
   </si>
   <si>
+    <t>《国家“十二五”时期文化改革发展规划纲要》提出要加大政府对文化事业建设的投入力度。下列属于政府投入保障政策的是（ ）</t>
+  </si>
+  <si>
     <t>单选题</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>D.通过政府购买服务的方式，鼓励社会力量提供公共文化产品</t>
   </si>
   <si>
+    <t>关于中国共产党历史上的重要会议，下列说法不正确的是（ ）</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
@@ -127,6 +133,9 @@
     <t>D.社会保险</t>
   </si>
   <si>
+    <t>下列诗句反映的历史事件，按时间先后排序正确的是（ ）①北师覆没威海卫，签订条约在马关②鸦片带来民族难，硝烟虎门海滩前③武装起义占三旗，武昌汉口和汉阳</t>
+  </si>
+  <si>
     <t>A.①③②</t>
   </si>
   <si>
@@ -187,6 +196,9 @@
     <t>D.某国有企业以所属土地使用权作抵押向银行申请贷款</t>
   </si>
   <si>
+    <t>“天下九塞，雁门为首”，下列诗词描写“雁门关”的是（ ）</t>
+  </si>
+  <si>
     <t>A.黑云压城城欲摧，甲光向日金鳞开</t>
   </si>
   <si>
@@ -214,6 +226,9 @@
     <t>D.《聊斋志异》——使神魔皆有人情，精魅亦通世故</t>
   </si>
   <si>
+    <t>下列表述正确的是（ ）</t>
+  </si>
+  <si>
     <t>A.人的唾液是由舌头分泌的</t>
   </si>
   <si>
@@ -226,6 +241,9 @@
     <t>D.正常情况下，卵细胞在子宫内受精</t>
   </si>
   <si>
+    <t>关于中药，下列归类正确的是（ ）</t>
+  </si>
+  <si>
     <t>A.辛味药：连翘、杏仁</t>
   </si>
   <si>
@@ -253,6 +271,9 @@
     <t>D.雨、雪、雹</t>
   </si>
   <si>
+    <t>关于地球生物演化史，下列哪组排序是正确的？（ ）</t>
+  </si>
+  <si>
     <t>A.蓝藻——蕨类——裸子植物——被子植物</t>
   </si>
   <si>
@@ -325,6 +346,9 @@
     <t>D.“徒步”旅行区[IMG]0595075ceaae43bd8be93cd373b001b5.004.jpg[/IMG]</t>
   </si>
   <si>
+    <t>下列谚语与农业生产经验不符的是（ ）</t>
+  </si>
+  <si>
     <t>A.人在屋里热的跳，稻在田里哈哈笑</t>
   </si>
   <si>
@@ -367,6 +391,9 @@
     <t>D.南辕北辙 克制</t>
   </si>
   <si>
+    <t>舞台上，一个是中国京剧大师，一个是交响乐指挥家；一会儿传来韵味十足的京腔，一会儿又是沁人心脾的管弦乐。面对京剧传承的尴尬和交响乐普及的艰难，这种“抱团取暖”的方式，把两个不搭界的艺术形式进行“嫁接”，究竟是________还是异想天开？填入划横线部分最恰当的一项是（ ）</t>
+  </si>
+  <si>
     <t>A.相得益彰</t>
   </si>
   <si>
@@ -1162,6 +1189,9 @@
     <t>从所给的四个选项中，选择最合适的一个填入问号处，使之呈现一定的规律性（ ）[IMG]702819c553884e338e6eb34796cda931.001.jpeg[/IMG]</t>
   </si>
   <si>
+    <t>图片单选题</t>
+  </si>
+  <si>
     <t>A.[IMG]702819c553884e338e6eb34796cda931.002.jpg[/IMG]</t>
   </si>
   <si>
@@ -1759,6 +1789,9 @@
     <t>图文介绍</t>
   </si>
   <si>
+    <t>2011年前十一个月，某省高新技术产业完成总产值3763，00亿元，实现增加值896.31亿元。增加值同比增长30.74%，比规模以上工业增加值高11.64个百分点，占规模以上工业增加值的比重达到25.32%。高新技术产业各领域的增加值如下图所示：高新技术产业各领域增加值饼形图（单位：亿元）[IMG]b30c17d13f3942de897ff909d63dfe94.001.jpeg[/IMG]</t>
+  </si>
+  <si>
     <t>2011年前十一个月，该省规模以上工业增加值同比增长约为多少？（ ）</t>
   </si>
   <si>
@@ -1837,6 +1870,12 @@
     <t>D.生物医药和医疗器械领域与电子信息领域增加值之和不到全省高新技术产业增加值的1/4</t>
   </si>
   <si>
+    <t>根据下列资料，回答121～125题。</t>
+  </si>
+  <si>
+    <t>2011年发现违法用地行为7.0万件，涉及土地5.0万公顷（耕地1.8万公顷），同比分别上升5.8%、11.0%（耕地下降2.4），立案查处违法用地案件4.2万件，涉及土地4.4万公顷（耕地1.5万公顷），同比分别上升2.5%、11.4%（耕地下降5.7万公顷）。依法拆除违法构建物1289.8万平方米，收回土地3791.2公顷（耕地1064.7公顷），罚没款26.5亿元。[IMG]4896c3880a7b4e0ebbe50d2bd6bfebf1.001.jpeg[/IMG][IMG]4896c3880a7b4e0ebbe50d2bd6bfebf1.002.jpeg[/IMG]</t>
+  </si>
+  <si>
     <t>与2006年相比，2011年全国收缴土地面积约减少了（ ）</t>
   </si>
   <si>
@@ -1912,6 +1951,12 @@
     <t>D.2006年立案涉及的土地面积小于2010年与2011年立案涉及土地面积之和</t>
   </si>
   <si>
+    <t>根据下列资料，回答126～130题。</t>
+  </si>
+  <si>
+    <t>截至2011年4月21日22时，沪深两市已有534家上市公司第一季度财报。这534家公司实现营业总收入4572.78亿元，同比增长30.74%；实现将利润336.7亿元336.7亿元，同比增长30.52%。不过，一季度销售收入和净利润环比则有所下降，其中营业总收入环比下降12%，将利润环比下降25%。这534家公司2011年一季度库存货6167.68亿元，较上年年末增长10%。已公布一季报的创业板公司有71家，实现营业收入80.08亿元，同比增长73.60%；实现净利润13.16亿元，同比增长80%。已公布一季报的中小企业板公司有202家，实现营业收入789.97亿元，同比增长36%；实现净利润73.25亿元，同比增长25%。25家已公布一季报的房地产公司一季度实现营业收入193.68亿元，同比增长9%；实现将利润29.97亿元，同比增长31%；存货2892.18亿元，同比增长10%。已公布一季报的6家钢铁公司一季度存货为322亿元，实现营业收入493.39亿元，同比略有降低，环比下降20%；实现净利润12.65亿元，同比增长62%，环比表现更好、这6家公司2010年四季度净亏损3.77亿元。建筑机械类公司持续了之前的景气度，有4家公司公布一季报，实现营业总收入15.90亿元，同比增长39%；实现净利润1.18亿元，同比增长47.5%。</t>
+  </si>
+  <si>
     <t>已公布一季报的534公司，平均每家在2010年第四季度实现营业收入约为多少亿元？（ ）</t>
   </si>
   <si>
@@ -1981,6 +2026,9 @@
     <t>D.平均每家建筑机械类公司的营业收入高于534家公司的平均水平</t>
   </si>
   <si>
+    <t>2011年全国农民工总量达到25278万人，比上年增长1055万人，增长4.4%。农民工从业仍以制造业、建筑业和服务业为主，从事建筑业的比重明显提高。从农民工的就业地区来看；2011年在东部地区务农的农民工16537万人，比上年增加324万人；在中部地区务农的农民工4438万人，比上年增加334万人，增长8.1%；在西部地区务农的农民工4215万人，比上年增加370万人，增长9.6%。[IMG]f818d7abcbf74ec8a4cfbf98271b0d50.001.jpeg[/IMG][IMG]f818d7abcbf74ec8a4cfbf98271b0d50.002.jpeg[/IMG]</t>
+  </si>
+  <si>
     <t>与上一年相比，2011年在东部地区务工的农民工人数增长率约为（ ）</t>
   </si>
   <si>
@@ -2053,72 +2101,11 @@
     <t>D.2011年农民工在中部地区从事建筑业、批发零售业、居民服务和其他服务业的比重均超过全国平均水平</t>
   </si>
   <si>
-    <t>关于中国共产党历史上的重要会议，下列说法不正确的是（ ）</t>
+    <t>根据下列资料，回答116～120题。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>下列表述正确的是（ ）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于中药，下列归类正确的是（ ）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于地球生物演化史，下列哪组排序是正确的？（ ）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>“天下九塞，雁门为首”，下列诗词描写“雁门关”的是（ ）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>《国家“十二五”时期文化改革发展规划纲要》提出要加大政府对文化事业建设的投入力度。下列属于政府投入保障政策的是（ ）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>下列诗句反映的历史事件，按时间先后排序正确的是（ ）①北师覆没威海卫，签订条约在马关②鸦片带来民族难，硝烟虎门海滩前③武装起义占三旗，武昌汉口和汉阳</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>舞台上，一个是中国京剧大师，一个是交响乐指挥家；一会儿传来韵味十足的京腔，一会儿又是沁人心脾的管弦乐。面对京剧传承的尴尬和交响乐普及的艰难，这种“抱团取暖”的方式，把两个不搭界的艺术形式进行“嫁接”，究竟是________还是异想天开？填入划横线部分最恰当的一项是（ ）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>下列谚语与农业生产经验不符的是（ ）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2011年前十一个月，某省高新技术产业完成总产值3763，00亿元，实现增加值896.31亿元。增加值同比增长30.74%，比规模以上工业增加值高11.64个百分点，占规模以上工业增加值的比重达到25.32%。高新技术产业各领域的增加值如下图所示：高新技术产业各领域增加值饼形图（单位：亿元）[IMG]b30c17d13f3942de897ff909d63dfe94.001.jpeg[/IMG]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据下列资料，回答116～120题。</t>
-  </si>
-  <si>
-    <t>2011年发现违法用地行为7.0万件，涉及土地5.0万公顷（耕地1.8万公顷），同比分别上升5.8%、11.0%（耕地下降2.4），立案查处违法用地案件4.2万件，涉及土地4.4万公顷（耕地1.5万公顷），同比分别上升2.5%、11.4%（耕地下降5.7万公顷）。依法拆除违法构建物1289.8万平方米，收回土地3791.2公顷（耕地1064.7公顷），罚没款26.5亿元。[IMG]4896c3880a7b4e0ebbe50d2bd6bfebf1.001.jpeg[/IMG][IMG]4896c3880a7b4e0ebbe50d2bd6bfebf1.002.jpeg[/IMG]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据下列资料，回答121～125题。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2011年全国农民工总量达到25278万人，比上年增长1055万人，增长4.4%。农民工从业仍以制造业、建筑业和服务业为主，从事建筑业的比重明显提高。从农民工的就业地区来看；2011年在东部地区务农的农民工16537万人，比上年增加324万人；在中部地区务农的农民工4438万人，比上年增加334万人，增长8.1%；在西部地区务农的农民工4215万人，比上年增加370万人，增长9.6%。[IMG]f818d7abcbf74ec8a4cfbf98271b0d50.001.jpeg[/IMG][IMG]f818d7abcbf74ec8a4cfbf98271b0d50.002.jpeg[/IMG]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>根据下列资料，回答131～135题。</t>
-  </si>
-  <si>
-    <t>截至2011年4月21日22时，沪深两市已有534家上市公司第一季度财报。这534家公司实现营业总收入4572.78亿元，同比增长30.74%；实现将利润336.7亿元336.7亿元，同比增长30.52%。不过，一季度销售收入和净利润环比则有所下降，其中营业总收入环比下降12%，将利润环比下降25%。这534家公司2011年一季度库存货6167.68亿元，较上年年末增长10%。已公布一季报的创业板公司有71家，实现营业收入80.08亿元，同比增长73.60%；实现净利润13.16亿元，同比增长80%。已公布一季报的中小企业板公司有202家，实现营业收入789.97亿元，同比增长36%；实现净利润73.25亿元，同比增长25%。25家已公布一季报的房地产公司一季度实现营业收入193.68亿元，同比增长9%；实现将利润29.97亿元，同比增长31%；存货2892.18亿元，同比增长10%。已公布一季报的6家钢铁公司一季度存货为322亿元，实现营业收入493.39亿元，同比略有降低，环比下降20%；实现净利润12.65亿元，同比增长62%，环比表现更好、这6家公司2010年四季度净亏损3.77亿元。建筑机械类公司持续了之前的景气度，有4家公司公布一季报，实现营业总收入15.90亿元，同比增长39%；实现净利润1.18亿元，同比增长47.5%。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据下列资料，回答126～130题。</t>
-  </si>
-  <si>
-    <t>图文介绍</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3054,14 +3041,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="I117" sqref="I117"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="35.375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -3094,4027 +3078,4033 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>684</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>679</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>685</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>683</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>680</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>681</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>682</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>94</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G20" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H20" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>687</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H21" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="I21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F22" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G22" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H22" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F23" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H23" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="I23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>686</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F24" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G24" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="H24" t="s">
-        <v>120</v>
+        <v>129</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G25" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="H25" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G26" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H26" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F27" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G27" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H27" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F28" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G28" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="H28" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F29" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="G29" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="H29" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="I29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F30" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="G30" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H30" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F31" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="G31" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="H31" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="I31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F32" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G32" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="H32" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F33" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="G33" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H33" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="I33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="H34" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F35" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="G35" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H35" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="I35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="F36" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G36" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="H36" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="I36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F37" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="G37" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="H37" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="I37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F38" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="G38" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="H38" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F39" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G39" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H39" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F40" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="G40" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="H40" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="I40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F41" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="G41" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="H41" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="I41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F42" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="G42" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="H42" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="I42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F43" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G43" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="H43" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="I43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="F44" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="G44" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="H44" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="I44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F45" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="G45" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="H45" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="I45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="F46" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="G46" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="H46" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="I46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F47" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G47" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="H47" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="I47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F48" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G48" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="H48" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="I48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="F49" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G49" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="H49" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="F50" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G50" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="H50" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="I50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="F51" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G51" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="H51" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="I51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="F52" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G52" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="H52" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="I52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="F53" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="G53" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="H53" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="I53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="F54" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="G54" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H54" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="I54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F55" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="G55" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H55" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="I55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="F56" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="G56" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="H56" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="I56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="F57" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="G57" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="H57" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="F58" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="G58" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="H58" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="F59" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="G59" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="H59" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="I59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="F60" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="G60" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="H60" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="I60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="F61" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="G61" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="H61" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="I61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F62" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="G62" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="H62" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="I62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="F63" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="G63" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="H63" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="I63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F64" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G64" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="H64" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="I64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="F65" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="G65" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="H65" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="I65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="F66" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="G66" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="H66" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="I66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="F67" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="G67" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="H67" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="I67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="F68" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="G68" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H68" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="I68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="F69" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G69" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="H69" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="I69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="F70" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="G70" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="H70" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="I70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="F71" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G71" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="H71" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="I71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E72" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F72" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="G72" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="H72" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="I72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="F73" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="G73" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="H73" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="I73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="F74" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="G74" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="H74" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="I74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="F75" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="G75" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="H75" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="I75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="F76" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="G76" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="H76" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="I76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>391</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="F77" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="G77" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="H77" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="I77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>391</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="F78" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="G78" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="H78" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
+        <v>401</v>
+      </c>
+      <c r="B79" t="s">
         <v>391</v>
       </c>
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
       <c r="C79" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="F79" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="G79" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="H79" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="I79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>391</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="F80" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="G80" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="H80" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="I80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>391</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="F81" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="G81" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="H81" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="I81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="F82" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="G82" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="H82" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="I82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="F83" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="G83" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="H83" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="I83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="F84" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="G84" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="H84" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="I84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F85" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="G85" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="H85" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="I85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="F86" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="G86" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="H86" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="I86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F87" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="G87" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="H87" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="I87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="F88" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G88" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="H88" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="I88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="F89" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="G89" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="H89" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="I89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="F90" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="G90" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="H90" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="I90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="F91" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="G91" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="H91" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="I91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="F92" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="G92" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="H92" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="I92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="F93" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="G93" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="H93" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="I93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="F94" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="G94" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="H94" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="I94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="F95" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="G95" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="H95" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="I95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="F96" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="G96" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="H96" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="I96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="F97" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="G97" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="H97" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="I97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="F98" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="G98" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="H98" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="I98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="F99" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="G99" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="H99" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="I99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="F100" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="G100" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="H100" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="I100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="F101" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="G101" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="H101" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="I101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="F102" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="G102" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="H102" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="I102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="F103" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="G103" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="H103" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="I103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="F104" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="G104" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="H104" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="I104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E105" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="F105" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="G105" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="H105" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="I105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="F106" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="G106" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="H106" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="I106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="F107" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="G107" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="H107" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="I107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="F108" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="G108" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="H108" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="I108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="F109" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="G109" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="H109" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="I109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="F110" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="G110" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="H110" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="I110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E111" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="F111" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="G111" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="H111" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="I111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="F112" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="G112" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="H112" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="I112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="F113" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="G113" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="H113" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="I113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="F114" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="G114" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="H114" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="I114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="F115" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="G115" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="H115" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="I115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="F116" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="G116" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="H116" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="I116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="B117" t="s">
-        <v>696</v>
+        <v>590</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I117" t="s">
-        <v>688</v>
+        <v>591</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="B118" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C118" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="F118" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="G118" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="H118" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="I118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="B119" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="F119" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="G119" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="H119" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="I119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="B120" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="F120" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="G120" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="H120" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="I120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="B121" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C121" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="F121" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="G121" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="H121" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="I121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="B122" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="F122" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="G122" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="H122" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="I122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>691</v>
+        <v>618</v>
       </c>
       <c r="B123" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I123" t="s">
-        <v>690</v>
+        <v>619</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="B124" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="F124" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="G124" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="H124" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="I124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="B125" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="F125" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="G125" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="H125" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="I125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="B126" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C126" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="F126" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="G126" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="H126" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="I126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="B127" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="F127" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="G127" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="H127" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="I127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="B128" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="F128" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="G128" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="H128" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="I128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>695</v>
+        <v>645</v>
       </c>
       <c r="B129" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I129" t="s">
-        <v>694</v>
+        <v>646</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="B130" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="F130" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="G130" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="H130" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="I130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="B131" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="F131" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="G131" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="H131" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="I131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="B132" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C132" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F132" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="G132" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="H132" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="I132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="B133" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="F133" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="G133" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="H133" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="I133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="B134" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="F134" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="G134" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="H134" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="I134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B135" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I135" t="s">
-        <v>692</v>
+        <v>670</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="B136" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="F136" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="G136" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="H136" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="I136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="B137" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E137" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="F137" t="s">
-        <v>662</v>
+        <v>678</v>
       </c>
       <c r="G137" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="H137" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="I137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="B138" t="s">
-        <v>582</v>
+        <v>391</v>
       </c>
       <c r="C138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E138" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="F138" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="G138" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="H138" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="I138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="B139" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E139" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="F139" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="G139" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="H139" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="I139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="B140" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C140" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="F140" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="G140" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="H140" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="I140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
